--- a/Datas/TileEffect.xlsx
+++ b/Datas/TileEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8C9C7-3720-42AD-86B3-B116A1243600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4591782-DF76-46B0-814F-95B27E24AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2805" windowWidth="20730" windowHeight="11160" xr2:uid="{10AA8FEC-E990-46A0-880D-7258D08F38D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{10AA8FEC-E990-46A0-880D-7258D08F38D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -126,6 +126,42 @@
   </si>
   <si>
     <t>Res_ally</t>
+  </si>
+  <si>
+    <t>堡垒</t>
+  </si>
+  <si>
+    <t>流沙</t>
+  </si>
+  <si>
+    <t>浅滩</t>
+  </si>
+  <si>
+    <t>瘴气</t>
+  </si>
+  <si>
+    <t>柱子</t>
+  </si>
+  <si>
+    <t>藤蔓</t>
+  </si>
+  <si>
+    <t>火焰</t>
+  </si>
+  <si>
+    <t>雾气</t>
+  </si>
+  <si>
+    <t>结冰</t>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>保护</t>
+  </si>
+  <si>
+    <t>治疗</t>
   </si>
 </sst>
 </file>
@@ -174,9 +210,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -196,9 +234,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +274,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -342,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,13 +533,16 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,6 +643,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -616,6 +660,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
@@ -636,6 +683,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B6">
         <v>3</v>
       </c>
@@ -656,6 +706,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B7">
         <v>4</v>
       </c>
@@ -670,6 +723,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B8">
         <v>5</v>
       </c>
@@ -684,6 +740,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B9">
         <v>6</v>
       </c>
@@ -707,6 +766,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B10">
         <v>7</v>
       </c>
@@ -721,6 +783,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B11">
         <v>8</v>
       </c>
@@ -744,6 +809,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="B12">
         <v>9</v>
       </c>
@@ -758,6 +826,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B13">
         <v>10</v>
       </c>
@@ -772,6 +843,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B14">
         <v>11</v>
       </c>
@@ -786,6 +860,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
       <c r="B15">
         <v>12</v>
       </c>
@@ -801,5 +878,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>